--- a/biology/Botanique/Helios_(cépage)/Helios_(cépage).xlsx
+++ b/biology/Botanique/Helios_(cépage)/Helios_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Helios_(c%C3%A9page)</t>
+          <t>Helios_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  helios  est un cépage de cuve allemand de raisins blancs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Helios_(c%C3%A9page)</t>
+          <t>Helios_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage est une obtention de Norbert Becker à l'institut Staatliches Weinbauinstitut Freiburg à Fribourg-en-Brisgau. L'origine attestée, est un croisement des cépages Merzling, (Seyve-Villard 12-481 et Müller-Thurgau) réalisé en 1973.Son nom a été enregistré en 2003. Le cépage est autorisé en Belgique. Il est peu cultivé en Allemagne.
 Le nom du cépage est un hommage au dieu Hélios, personnification du Soleil.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Helios_(c%C3%A9page)</t>
+          <t>Helios_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Feuilles adultes à 3 lobes, vert foncé</t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Helios_(c%C3%A9page)</t>
+          <t>Helios_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque précoce : 10 jours après le chasselas.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Helios_(c%C3%A9page)</t>
+          <t>Helios_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes  sont moyennes et les baies de petite taille. Le cépage est assez résistant au mildiou   à l'oïdium et à la pourriture grise.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Helios_(c%C3%A9page)</t>
+          <t>Helios_(cépage)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  helios est connu sous le nom de FR 242-73
 </t>
